--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPER_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPER_Template.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2017\CRE17-004 (Generate a new DPAR on EHCP basis)\Front-end\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="6015" windowWidth="19260" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="01" sheetId="3" r:id="rId3"/>
-    <sheet name="Remark" sheetId="4" r:id="rId4"/>
-    <sheet name="Change History" sheetId="5" r:id="rId5"/>
+    <sheet name="01" sheetId="8" r:id="rId3"/>
+    <sheet name="02" sheetId="7" r:id="rId4"/>
+    <sheet name="03" sheetId="3" r:id="rId5"/>
+    <sheet name="Remark" sheetId="4" r:id="rId6"/>
+    <sheet name="Change History" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -75,10 +82,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Reimbursement Data File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRE13-018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,26 +109,70 @@
     <t>Extend portability of health care voucher to Mainland</t>
   </si>
   <si>
+    <t>CRE15-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename of eHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Service Provider ID</t>
+  </si>
+  <si>
+    <t>No. of Transaction</t>
+  </si>
+  <si>
     <t>eHS(S)M0002-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRE15-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rename of eHS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eHS(S)M0002-01: Reimbursement Data File</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0002-02</t>
+  </si>
+  <si>
+    <t>eHS(S)M0002-03</t>
+  </si>
+  <si>
+    <t>CRE17-004</t>
+  </si>
+  <si>
+    <t>To generate a new Detailed Payment Analysis Report (DPAR) on EHCP basis for monthly reimbursement exercise</t>
+  </si>
+  <si>
+    <t>EHCP selected for checking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on EHCP Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on Practice Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reimbursement Data File (on Transaction Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0002-01: Reimbursement Data File (on EHCP Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0002-02: Reimbursement Data File (on Practice Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0002-03: Reimbursement Data File (on Transaction Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d\ mmm\ yyyy\ h:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -194,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +300,12 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -264,6 +317,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,16 +632,36 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -605,13 +681,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="11" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -676,13 +752,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="3" customWidth="1"/>
@@ -695,8 +905,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
+      <c r="A1" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="H1" s="8"/>
     </row>
@@ -723,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>8</v>
@@ -745,7 +955,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -766,7 +976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -780,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -922,9 +1132,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -961,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="10">
         <v>41821</v>
@@ -975,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="22">
         <v>42213</v>
@@ -989,13 +1199,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="22">
         <v>42430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="22">
+        <v>44103</v>
       </c>
     </row>
   </sheetData>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPER_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0002-SUPER_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2017\CRE17-004 (Generate a new DPAR on EHCP basis)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2020\CRE20-016 (To update the format of the Pre Authorization Checking File)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -166,6 +166,22 @@
   </si>
   <si>
     <t>eHS(S)M0002-03: Reimbursement Data File (on Transaction Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE20-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To update the format of the Pre Authorization Checking File</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,68 +838,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="6.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,6 +1250,20 @@
         <v>44103</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="22">
+        <v>44162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
